--- a/Test Plan and Test Results/Test Cases.xlsx
+++ b/Test Plan and Test Results/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiMcGraw\source\repos\Capstone-Documents\Test Plan and Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6BE59D-6C8B-464A-9529-65A1AE519FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8289D571-39E3-47A4-AA8E-2891F43A3F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D7C2301-556F-43D0-B032-0351B751C393}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D7C2301-556F-43D0-B032-0351B751C393}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Break Down" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>Description</t>
   </si>
@@ -145,9 +145,6 @@
     <t>POST add new selected song to list. Check response body attributes.</t>
   </si>
   <si>
-    <t>DELETE all selected songs in list</t>
-  </si>
-  <si>
     <t>Route</t>
   </si>
   <si>
@@ -164,13 +161,31 @@
   </si>
   <si>
     <t>{{baseURL}}/api/SelectedSongs/List</t>
+  </si>
+  <si>
+    <t>{{baseURL}}/recommendation</t>
+  </si>
+  <si>
+    <t>Music object with minimum attributes of track &amp; artist</t>
+  </si>
+  <si>
+    <t>POST create new recommendation request from input. Status code check.</t>
+  </si>
+  <si>
+    <t>DELETE all selected songs in list.</t>
+  </si>
+  <si>
+    <t>Song recommendation with artist and song title</t>
+  </si>
+  <si>
+    <t>POST create new recommendation request from input. Response data check.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +196,12 @@
     <font>
       <sz val="9"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -205,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,6 +238,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,15 +279,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1E19995-3BF5-47F7-9E7B-1F52F039EE9F}" name="Table1" displayName="Table1" ref="A1:I40" totalsRowShown="0">
   <autoFilter ref="A1:I40" xr:uid="{A1E19995-3BF5-47F7-9E7B-1F52F039EE9F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4244A185-21ED-4905-BAA2-E2CD52B23A38}" name="Test Case #" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{25134055-0839-445A-A1FC-99DF2669CA2D}" name="Solution" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4244A185-21ED-4905-BAA2-E2CD52B23A38}" name="Test Case #" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{25134055-0839-445A-A1FC-99DF2669CA2D}" name="Solution" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{9DAB0F68-0B9A-4256-87DE-294548E984D1}" name="Requirment #"/>
     <tableColumn id="9" xr3:uid="{7B9163CD-C772-458B-B2BE-8AF12BDF486A}" name="Route"/>
     <tableColumn id="4" xr3:uid="{54BB2771-304A-4BC3-8086-41B9679FE70A}" name="Description"/>
     <tableColumn id="5" xr3:uid="{C9113E62-89A5-4DF1-87E4-F17FD9005516}" name="Inputs" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{9014F0D7-2068-4ED3-BF70-ACE7150EED34}" name="Expected Output" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{CF46B492-B5EB-4973-A301-47BC87897DA0}" name="Status Code" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{F393C62C-030B-4DA1-9585-E11D80F517F5}" name="Pass/Fail" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{9014F0D7-2068-4ED3-BF70-ACE7150EED34}" name="Expected Output" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{CF46B492-B5EB-4973-A301-47BC87897DA0}" name="Status Code" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{F393C62C-030B-4DA1-9585-E11D80F517F5}" name="Pass/Fail" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -571,13 +593,13 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
     <col min="5" max="5" width="44.85546875" customWidth="1"/>
@@ -597,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -623,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -649,7 +671,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>26</v>
@@ -675,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>27</v>
@@ -701,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>28</v>
@@ -727,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>29</v>
@@ -753,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -779,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
@@ -805,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -831,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>33</v>
@@ -857,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>34</v>
@@ -883,7 +905,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>35</v>
@@ -909,10 +931,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -928,22 +950,56 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="1">
+        <v>200</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1">
+        <v>200</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>

--- a/Test Plan and Test Results/Test Cases.xlsx
+++ b/Test Plan and Test Results/Test Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiMcGraw\source\repos\Capstone-Documents\Test Plan and Test Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiMcGraw\source\repos\capstone-documents\Test Plan and Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8289D571-39E3-47A4-AA8E-2891F43A3F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EC5ED2-1807-4E40-97AD-52641EF3860D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D7C2301-556F-43D0-B032-0351B751C393}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>Description</t>
   </si>
@@ -179,6 +179,102 @@
   </si>
   <si>
     <t>POST create new recommendation request from input. Response data check.</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/</t>
+  </si>
+  <si>
+    <t>Make sure home page is pulling up on specified route</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/login</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/about</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/support</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/account</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/recommendations</t>
+  </si>
+  <si>
+    <t>Make sure login page is pulling up on specified route</t>
+  </si>
+  <si>
+    <t>Make sure recommendation page is pulling up on specified route</t>
+  </si>
+  <si>
+    <t>Make sure account page is pulling up on specified route</t>
+  </si>
+  <si>
+    <t>Make sure support page is pulling up on specified route</t>
+  </si>
+  <si>
+    <t>Make sure about page is pulling up on specified route</t>
+  </si>
+  <si>
+    <t>login page to pull up</t>
+  </si>
+  <si>
+    <t>home page to pull up</t>
+  </si>
+  <si>
+    <t>about page to pull up</t>
+  </si>
+  <si>
+    <t>support page to pull up</t>
+  </si>
+  <si>
+    <t>account page to pull up</t>
+  </si>
+  <si>
+    <t>recommendation page to pull up</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>1.3.0</t>
+  </si>
+  <si>
+    <t>1.7.0</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>1.0.4</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
   </si>
 </sst>
 </file>
@@ -276,8 +372,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1E19995-3BF5-47F7-9E7B-1F52F039EE9F}" name="Table1" displayName="Table1" ref="A1:I40" totalsRowShown="0">
-  <autoFilter ref="A1:I40" xr:uid="{A1E19995-3BF5-47F7-9E7B-1F52F039EE9F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1E19995-3BF5-47F7-9E7B-1F52F039EE9F}" name="Table1" displayName="Table1" ref="A1:I23" totalsRowShown="0">
+  <autoFilter ref="A1:I23" xr:uid="{A1E19995-3BF5-47F7-9E7B-1F52F039EE9F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4244A185-21ED-4905-BAA2-E2CD52B23A38}" name="Test Case #" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{25134055-0839-445A-A1FC-99DF2669CA2D}" name="Solution" dataDxfId="4"/>
@@ -590,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01193207-CCDA-4349-9958-299C50E64E42}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,6 +740,9 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
@@ -670,6 +769,9 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>37</v>
       </c>
@@ -696,6 +798,9 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>37</v>
       </c>
@@ -722,6 +827,9 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
@@ -748,6 +856,9 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>37</v>
       </c>
@@ -774,6 +885,9 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
@@ -800,6 +914,9 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
@@ -826,6 +943,9 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
@@ -852,6 +972,9 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>40</v>
       </c>
@@ -878,6 +1001,9 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
@@ -903,6 +1029,9 @@
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>40</v>
@@ -930,6 +1059,9 @@
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
@@ -956,6 +1088,9 @@
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
@@ -982,6 +1117,9 @@
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>42</v>
       </c>
@@ -1002,58 +1140,178 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="1">
+        <v>200</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="1">
+        <v>200</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="1">
+        <v>200</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="1">
+        <v>200</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="1">
+        <v>200</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="1">
+        <v>200</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -1073,164 +1331,19 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{AFFC89A1-C5AB-457D-AA62-873950085D4B}"/>
+    <hyperlink ref="D17" r:id="rId2" xr:uid="{DE903B90-681A-493F-912F-C7CAD0DFE189}"/>
+    <hyperlink ref="D18" r:id="rId3" xr:uid="{975180B4-B96C-4757-9678-A1E80AC0B520}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{CD4D6706-9762-4DA6-B512-D215BCA0207D}"/>
+    <hyperlink ref="D20" r:id="rId5" xr:uid="{CC0FD1A7-DD2B-4EDF-9490-2E948DC21070}"/>
+    <hyperlink ref="D21" r:id="rId6" xr:uid="{08710D28-6488-42E5-B8A7-2003FE79007F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1239,19 +1352,19 @@
           <x14:formula1>
             <xm:f>'drop down'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B40</xm:sqref>
+          <xm:sqref>B2:B23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2D943AC-AAFC-43FD-9642-6B2C7C6CB066}">
           <x14:formula1>
             <xm:f>'drop down'!$E$1:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H40</xm:sqref>
+          <xm:sqref>H2:H23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{521F33D3-1F81-41FA-B9CA-22294157BF5A}">
           <x14:formula1>
             <xm:f>'drop down'!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I40</xm:sqref>
+          <xm:sqref>I2:I23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
